--- a/data/raw/zambia_annual.xlsx
+++ b/data/raw/zambia_annual.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\ZambiaPrice\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72B25636-904C-484C-A746-7307BA3F6EB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19D3104-544C-4A09-BB27-9E76077FA662}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="18">
   <si>
     <t>Time</t>
   </si>
@@ -52,6 +53,33 @@
   </si>
   <si>
     <t xml:space="preserve"> Corn FSI Consumption (1000 MT)</t>
+  </si>
+  <si>
+    <t>Yield</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>Crops</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Maize</t>
+  </si>
+  <si>
+    <t>hg/ha</t>
+  </si>
+  <si>
+    <t>Fc</t>
+  </si>
+  <si>
+    <t>Calculated data</t>
+  </si>
+  <si>
+    <t>Yield(hg/ha)</t>
   </si>
 </sst>
 </file>
@@ -369,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,9 +408,10 @@
     <col min="4" max="4" width="25.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,8 +439,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -439,8 +471,11 @@
       <c r="I2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>30310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -468,8 +503,11 @@
       <c r="I3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>27802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2013</v>
       </c>
@@ -497,8 +535,11 @@
       <c r="I4">
         <v>1800</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>25382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2012</v>
       </c>
@@ -526,8 +567,11 @@
       <c r="I5">
         <v>1800</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>26545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2011</v>
       </c>
@@ -555,8 +599,11 @@
       <c r="I6">
         <v>1800</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>27414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2010</v>
       </c>
@@ -584,8 +631,11 @@
       <c r="I7">
         <v>1700</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>25871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2009</v>
       </c>
@@ -613,8 +663,11 @@
       <c r="I8">
         <v>1600</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>20692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2008</v>
       </c>
@@ -642,8 +695,11 @@
       <c r="I9">
         <v>1200</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>22442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2007</v>
       </c>
@@ -671,8 +727,11 @@
       <c r="I10">
         <v>1200</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>23342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2006</v>
       </c>
@@ -700,8 +759,11 @@
       <c r="I11">
         <v>1150</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>18992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2005</v>
       </c>
@@ -729,8 +791,11 @@
       <c r="I12">
         <v>950</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>18594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2004</v>
       </c>
@@ -758,8 +823,11 @@
       <c r="I13">
         <v>1000</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>19239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2003</v>
       </c>
@@ -787,8 +855,11 @@
       <c r="I14">
         <v>850</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>17256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2002</v>
       </c>
@@ -816,8 +887,11 @@
       <c r="I15">
         <v>700</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>14097</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2001</v>
       </c>
@@ -845,8 +919,11 @@
       <c r="I16">
         <v>950</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>13780</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2000</v>
       </c>
@@ -874,8 +951,11 @@
       <c r="I17">
         <v>1250</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>17720</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1999</v>
       </c>
@@ -903,8 +983,11 @@
       <c r="I18">
         <v>900</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>13759</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1998</v>
       </c>
@@ -932,8 +1015,11 @@
       <c r="I19">
         <v>700</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>12503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1997</v>
       </c>
@@ -961,8 +1047,11 @@
       <c r="I20">
         <v>1250</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>14794</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1996</v>
       </c>
@@ -990,8 +1079,11 @@
       <c r="I21">
         <v>1350</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>20864</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1995</v>
       </c>
@@ -1019,8 +1111,11 @@
       <c r="I22">
         <v>740</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>14185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1994</v>
       </c>
@@ -1048,8 +1143,11 @@
       <c r="I23">
         <v>1240</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>15025</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1993</v>
       </c>
@@ -1077,8 +1175,11 @@
       <c r="I24">
         <v>1440</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>25228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1992</v>
       </c>
@@ -1106,8 +1207,11 @@
       <c r="I25">
         <v>530</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>7311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1991</v>
       </c>
@@ -1135,8 +1239,11 @@
       <c r="I26">
         <v>1630</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>17140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1990</v>
       </c>
@@ -1164,8 +1271,11 @@
       <c r="I27">
         <v>1430</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>14316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1989</v>
       </c>
@@ -1193,8 +1303,11 @@
       <c r="I28">
         <v>1930</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>18078</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1988</v>
       </c>
@@ -1222,8 +1335,11 @@
       <c r="I29">
         <v>1880</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>26874</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1987</v>
       </c>
@@ -1251,8 +1367,11 @@
       <c r="I30">
         <v>1400</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>17447</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1986</v>
       </c>
@@ -1280,8 +1399,11 @@
       <c r="I31">
         <v>1115</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>20911</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1985</v>
       </c>
@@ -1309,8 +1431,11 @@
       <c r="I32">
         <v>1125</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>19289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1984</v>
       </c>
@@ -1338,8 +1463,11 @@
       <c r="I33">
         <v>960</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>17211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1983</v>
       </c>
@@ -1367,8 +1495,11 @@
       <c r="I34">
         <v>1205</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>17108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1982</v>
       </c>
@@ -1396,8 +1527,11 @@
       <c r="I35">
         <v>950</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>16507</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1981</v>
       </c>
@@ -1425,8 +1559,11 @@
       <c r="I36">
         <v>1210</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>20399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1980</v>
       </c>
@@ -1454,8 +1591,11 @@
       <c r="I37">
         <v>941</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>16875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1979</v>
       </c>
@@ -1483,8 +1623,11 @@
       <c r="I38">
         <v>963</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>16880</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1978</v>
       </c>
@@ -1512,8 +1655,11 @@
       <c r="I39">
         <v>695</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>17049</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1977</v>
       </c>
@@ -1541,8 +1687,11 @@
       <c r="I40">
         <v>560</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>16925</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1976</v>
       </c>
@@ -1570,8 +1719,11 @@
       <c r="I41">
         <v>559</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>14927</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1975</v>
       </c>
@@ -1599,8 +1751,11 @@
       <c r="I42">
         <v>516</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>14541</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1974</v>
       </c>
@@ -1628,8 +1783,11 @@
       <c r="I43">
         <v>451</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>10272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1973</v>
       </c>
@@ -1657,8 +1815,11 @@
       <c r="I44">
         <v>428</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>8915</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1972</v>
       </c>
@@ -1686,8 +1847,11 @@
       <c r="I45">
         <v>389</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>11433</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1971</v>
       </c>
@@ -1715,8 +1879,11 @@
       <c r="I46">
         <v>312</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>9212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1970</v>
       </c>
@@ -1744,8 +1911,11 @@
       <c r="I47">
         <v>735</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>6333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1969</v>
       </c>
@@ -1773,8 +1943,11 @@
       <c r="I48">
         <v>591</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>8046</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1968</v>
       </c>
@@ -1802,8 +1975,11 @@
       <c r="I49">
         <v>653</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>8235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1967</v>
       </c>
@@ -1831,8 +2007,11 @@
       <c r="I50">
         <v>588</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>9277</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1966</v>
       </c>
@@ -1860,8 +2039,11 @@
       <c r="I51">
         <v>539</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>9390</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1965</v>
       </c>
@@ -1889,8 +2071,11 @@
       <c r="I52">
         <v>476</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1964</v>
       </c>
@@ -1918,8 +2103,11 @@
       <c r="I53">
         <v>405</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>8354</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1963</v>
       </c>
@@ -1947,8 +2135,11 @@
       <c r="I54">
         <v>479</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>7403</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1962</v>
       </c>
@@ -1976,8 +2167,11 @@
       <c r="I55">
         <v>514</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>8533</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1961</v>
       </c>
@@ -2004,9 +2198,2450 @@
       </c>
       <c r="I56">
         <v>514</v>
+      </c>
+      <c r="J56">
+        <v>8800</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35C5480-E605-4482-9E99-236C3983EF72}">
+  <dimension ref="A3:N57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>251</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>5419</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>2015</v>
+      </c>
+      <c r="J3">
+        <v>2015</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3">
+        <v>30310</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>251</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>5419</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>2014</v>
+      </c>
+      <c r="J4">
+        <v>2014</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4">
+        <v>27802</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>251</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>5419</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>2013</v>
+      </c>
+      <c r="J5">
+        <v>2013</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5">
+        <v>25382</v>
+      </c>
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>251</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>5419</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>56</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6">
+        <v>2012</v>
+      </c>
+      <c r="J6">
+        <v>2012</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <v>26545</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>251</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>5419</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>2011</v>
+      </c>
+      <c r="J7">
+        <v>2011</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7">
+        <v>27414</v>
+      </c>
+      <c r="M7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>251</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>5419</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8">
+        <v>2010</v>
+      </c>
+      <c r="J8">
+        <v>2010</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8">
+        <v>25871</v>
+      </c>
+      <c r="M8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>251</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>5419</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <v>2009</v>
+      </c>
+      <c r="J9">
+        <v>2009</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9">
+        <v>20692</v>
+      </c>
+      <c r="M9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>251</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>5419</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>2008</v>
+      </c>
+      <c r="J10">
+        <v>2008</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10">
+        <v>22442</v>
+      </c>
+      <c r="M10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>251</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>5419</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11">
+        <v>2007</v>
+      </c>
+      <c r="J11">
+        <v>2007</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11">
+        <v>23342</v>
+      </c>
+      <c r="M11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>251</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>5419</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>56</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12">
+        <v>2006</v>
+      </c>
+      <c r="J12">
+        <v>2006</v>
+      </c>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12">
+        <v>18992</v>
+      </c>
+      <c r="M12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>251</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>5419</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>56</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <v>2005</v>
+      </c>
+      <c r="J13">
+        <v>2005</v>
+      </c>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13">
+        <v>18594</v>
+      </c>
+      <c r="M13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>251</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>5419</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>56</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>2004</v>
+      </c>
+      <c r="J14">
+        <v>2004</v>
+      </c>
+      <c r="K14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14">
+        <v>19239</v>
+      </c>
+      <c r="M14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>251</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>5419</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>56</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>2003</v>
+      </c>
+      <c r="J15">
+        <v>2003</v>
+      </c>
+      <c r="K15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15">
+        <v>17256</v>
+      </c>
+      <c r="M15" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>251</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>5419</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>56</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>2002</v>
+      </c>
+      <c r="J16">
+        <v>2002</v>
+      </c>
+      <c r="K16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16">
+        <v>14097</v>
+      </c>
+      <c r="M16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>251</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>5419</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>56</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17">
+        <v>2001</v>
+      </c>
+      <c r="J17">
+        <v>2001</v>
+      </c>
+      <c r="K17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17">
+        <v>13780</v>
+      </c>
+      <c r="M17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>251</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>5419</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18">
+        <v>2000</v>
+      </c>
+      <c r="J18">
+        <v>2000</v>
+      </c>
+      <c r="K18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18">
+        <v>17720</v>
+      </c>
+      <c r="M18" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>251</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>5419</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>56</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19">
+        <v>1999</v>
+      </c>
+      <c r="J19">
+        <v>1999</v>
+      </c>
+      <c r="K19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19">
+        <v>13759</v>
+      </c>
+      <c r="M19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>251</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>5419</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>56</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20">
+        <v>1998</v>
+      </c>
+      <c r="J20">
+        <v>1998</v>
+      </c>
+      <c r="K20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20">
+        <v>12503</v>
+      </c>
+      <c r="M20" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>251</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>5419</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>56</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21">
+        <v>1997</v>
+      </c>
+      <c r="J21">
+        <v>1997</v>
+      </c>
+      <c r="K21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21">
+        <v>14794</v>
+      </c>
+      <c r="M21" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>251</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>5419</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <v>56</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22">
+        <v>1996</v>
+      </c>
+      <c r="J22">
+        <v>1996</v>
+      </c>
+      <c r="K22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22">
+        <v>20864</v>
+      </c>
+      <c r="M22" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>251</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>5419</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23">
+        <v>56</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23">
+        <v>1995</v>
+      </c>
+      <c r="J23">
+        <v>1995</v>
+      </c>
+      <c r="K23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23">
+        <v>14185</v>
+      </c>
+      <c r="M23" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>251</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>5419</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24">
+        <v>56</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24">
+        <v>1994</v>
+      </c>
+      <c r="J24">
+        <v>1994</v>
+      </c>
+      <c r="K24" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24">
+        <v>15025</v>
+      </c>
+      <c r="M24" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>251</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>5419</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>56</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25">
+        <v>1993</v>
+      </c>
+      <c r="J25">
+        <v>1993</v>
+      </c>
+      <c r="K25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25">
+        <v>25228</v>
+      </c>
+      <c r="M25" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>251</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>5419</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <v>56</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26">
+        <v>1992</v>
+      </c>
+      <c r="J26">
+        <v>1992</v>
+      </c>
+      <c r="K26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26">
+        <v>7311</v>
+      </c>
+      <c r="M26" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>251</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>5419</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <v>56</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27">
+        <v>1991</v>
+      </c>
+      <c r="J27">
+        <v>1991</v>
+      </c>
+      <c r="K27" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27">
+        <v>17140</v>
+      </c>
+      <c r="M27" t="s">
+        <v>15</v>
+      </c>
+      <c r="N27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>251</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>5419</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <v>56</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28">
+        <v>1990</v>
+      </c>
+      <c r="J28">
+        <v>1990</v>
+      </c>
+      <c r="K28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28">
+        <v>14316</v>
+      </c>
+      <c r="M28" t="s">
+        <v>15</v>
+      </c>
+      <c r="N28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>251</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>5419</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <v>56</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29">
+        <v>1989</v>
+      </c>
+      <c r="J29">
+        <v>1989</v>
+      </c>
+      <c r="K29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29">
+        <v>18078</v>
+      </c>
+      <c r="M29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>251</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>5419</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <v>56</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30">
+        <v>1988</v>
+      </c>
+      <c r="J30">
+        <v>1988</v>
+      </c>
+      <c r="K30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30">
+        <v>26874</v>
+      </c>
+      <c r="M30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>251</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>5419</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <v>56</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31">
+        <v>1987</v>
+      </c>
+      <c r="J31">
+        <v>1987</v>
+      </c>
+      <c r="K31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31">
+        <v>17447</v>
+      </c>
+      <c r="M31" t="s">
+        <v>15</v>
+      </c>
+      <c r="N31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>251</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>5419</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32">
+        <v>56</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32">
+        <v>1986</v>
+      </c>
+      <c r="J32">
+        <v>1986</v>
+      </c>
+      <c r="K32" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32">
+        <v>20911</v>
+      </c>
+      <c r="M32" t="s">
+        <v>15</v>
+      </c>
+      <c r="N32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>251</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>5419</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33">
+        <v>56</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33">
+        <v>1985</v>
+      </c>
+      <c r="J33">
+        <v>1985</v>
+      </c>
+      <c r="K33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33">
+        <v>19289</v>
+      </c>
+      <c r="M33" t="s">
+        <v>15</v>
+      </c>
+      <c r="N33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>251</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>5419</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34">
+        <v>56</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34">
+        <v>1984</v>
+      </c>
+      <c r="J34">
+        <v>1984</v>
+      </c>
+      <c r="K34" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34">
+        <v>17211</v>
+      </c>
+      <c r="M34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>251</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>5419</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35">
+        <v>56</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35">
+        <v>1983</v>
+      </c>
+      <c r="J35">
+        <v>1983</v>
+      </c>
+      <c r="K35" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35">
+        <v>17108</v>
+      </c>
+      <c r="M35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>251</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <v>5419</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36">
+        <v>56</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36">
+        <v>1982</v>
+      </c>
+      <c r="J36">
+        <v>1982</v>
+      </c>
+      <c r="K36" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36">
+        <v>16507</v>
+      </c>
+      <c r="M36" t="s">
+        <v>15</v>
+      </c>
+      <c r="N36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>251</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>5419</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37">
+        <v>56</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37">
+        <v>1981</v>
+      </c>
+      <c r="J37">
+        <v>1981</v>
+      </c>
+      <c r="K37" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37">
+        <v>20399</v>
+      </c>
+      <c r="M37" t="s">
+        <v>15</v>
+      </c>
+      <c r="N37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>251</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>5419</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38">
+        <v>56</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38">
+        <v>1980</v>
+      </c>
+      <c r="J38">
+        <v>1980</v>
+      </c>
+      <c r="K38" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38">
+        <v>16875</v>
+      </c>
+      <c r="M38" t="s">
+        <v>15</v>
+      </c>
+      <c r="N38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>251</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>5419</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39">
+        <v>56</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39">
+        <v>1979</v>
+      </c>
+      <c r="J39">
+        <v>1979</v>
+      </c>
+      <c r="K39" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39">
+        <v>16880</v>
+      </c>
+      <c r="M39" t="s">
+        <v>15</v>
+      </c>
+      <c r="N39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>251</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>5419</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40">
+        <v>56</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40">
+        <v>1978</v>
+      </c>
+      <c r="J40">
+        <v>1978</v>
+      </c>
+      <c r="K40" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40">
+        <v>17049</v>
+      </c>
+      <c r="M40" t="s">
+        <v>15</v>
+      </c>
+      <c r="N40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>251</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>5419</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41">
+        <v>56</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41">
+        <v>1977</v>
+      </c>
+      <c r="J41">
+        <v>1977</v>
+      </c>
+      <c r="K41" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41">
+        <v>16925</v>
+      </c>
+      <c r="M41" t="s">
+        <v>15</v>
+      </c>
+      <c r="N41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>251</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>5419</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42">
+        <v>56</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42">
+        <v>1976</v>
+      </c>
+      <c r="J42">
+        <v>1976</v>
+      </c>
+      <c r="K42" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42">
+        <v>14927</v>
+      </c>
+      <c r="M42" t="s">
+        <v>15</v>
+      </c>
+      <c r="N42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>251</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43">
+        <v>5419</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43">
+        <v>56</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43">
+        <v>1975</v>
+      </c>
+      <c r="J43">
+        <v>1975</v>
+      </c>
+      <c r="K43" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43">
+        <v>14541</v>
+      </c>
+      <c r="M43" t="s">
+        <v>15</v>
+      </c>
+      <c r="N43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>251</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <v>5419</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44">
+        <v>56</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44">
+        <v>1974</v>
+      </c>
+      <c r="J44">
+        <v>1974</v>
+      </c>
+      <c r="K44" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44">
+        <v>10272</v>
+      </c>
+      <c r="M44" t="s">
+        <v>15</v>
+      </c>
+      <c r="N44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>251</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>5419</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45">
+        <v>56</v>
+      </c>
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45">
+        <v>1973</v>
+      </c>
+      <c r="J45">
+        <v>1973</v>
+      </c>
+      <c r="K45" t="s">
+        <v>14</v>
+      </c>
+      <c r="L45">
+        <v>8915</v>
+      </c>
+      <c r="M45" t="s">
+        <v>15</v>
+      </c>
+      <c r="N45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>251</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <v>5419</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46">
+        <v>56</v>
+      </c>
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46">
+        <v>1972</v>
+      </c>
+      <c r="J46">
+        <v>1972</v>
+      </c>
+      <c r="K46" t="s">
+        <v>14</v>
+      </c>
+      <c r="L46">
+        <v>11433</v>
+      </c>
+      <c r="M46" t="s">
+        <v>15</v>
+      </c>
+      <c r="N46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>251</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <v>5419</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47">
+        <v>56</v>
+      </c>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47">
+        <v>1971</v>
+      </c>
+      <c r="J47">
+        <v>1971</v>
+      </c>
+      <c r="K47" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47">
+        <v>9212</v>
+      </c>
+      <c r="M47" t="s">
+        <v>15</v>
+      </c>
+      <c r="N47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>251</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48">
+        <v>5419</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48">
+        <v>56</v>
+      </c>
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48">
+        <v>1970</v>
+      </c>
+      <c r="J48">
+        <v>1970</v>
+      </c>
+      <c r="K48" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48">
+        <v>6333</v>
+      </c>
+      <c r="M48" t="s">
+        <v>15</v>
+      </c>
+      <c r="N48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>251</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <v>5419</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49">
+        <v>56</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49">
+        <v>1969</v>
+      </c>
+      <c r="J49">
+        <v>1969</v>
+      </c>
+      <c r="K49" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49">
+        <v>8046</v>
+      </c>
+      <c r="M49" t="s">
+        <v>15</v>
+      </c>
+      <c r="N49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>251</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>5419</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50">
+        <v>56</v>
+      </c>
+      <c r="H50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50">
+        <v>1968</v>
+      </c>
+      <c r="J50">
+        <v>1968</v>
+      </c>
+      <c r="K50" t="s">
+        <v>14</v>
+      </c>
+      <c r="L50">
+        <v>8235</v>
+      </c>
+      <c r="M50" t="s">
+        <v>15</v>
+      </c>
+      <c r="N50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>251</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51">
+        <v>5419</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51">
+        <v>56</v>
+      </c>
+      <c r="H51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51">
+        <v>1967</v>
+      </c>
+      <c r="J51">
+        <v>1967</v>
+      </c>
+      <c r="K51" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51">
+        <v>9277</v>
+      </c>
+      <c r="M51" t="s">
+        <v>15</v>
+      </c>
+      <c r="N51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>251</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52">
+        <v>5419</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <v>56</v>
+      </c>
+      <c r="H52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52">
+        <v>1966</v>
+      </c>
+      <c r="J52">
+        <v>1966</v>
+      </c>
+      <c r="K52" t="s">
+        <v>14</v>
+      </c>
+      <c r="L52">
+        <v>9390</v>
+      </c>
+      <c r="M52" t="s">
+        <v>15</v>
+      </c>
+      <c r="N52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53">
+        <v>251</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53">
+        <v>5419</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53">
+        <v>56</v>
+      </c>
+      <c r="H53" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53">
+        <v>1965</v>
+      </c>
+      <c r="J53">
+        <v>1965</v>
+      </c>
+      <c r="K53" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53">
+        <v>8750</v>
+      </c>
+      <c r="M53" t="s">
+        <v>15</v>
+      </c>
+      <c r="N53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <v>251</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54">
+        <v>5419</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54">
+        <v>56</v>
+      </c>
+      <c r="H54" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54">
+        <v>1964</v>
+      </c>
+      <c r="J54">
+        <v>1964</v>
+      </c>
+      <c r="K54" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54">
+        <v>8354</v>
+      </c>
+      <c r="M54" t="s">
+        <v>15</v>
+      </c>
+      <c r="N54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>251</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55">
+        <v>5419</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55">
+        <v>56</v>
+      </c>
+      <c r="H55" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55">
+        <v>1963</v>
+      </c>
+      <c r="J55">
+        <v>1963</v>
+      </c>
+      <c r="K55" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55">
+        <v>7403</v>
+      </c>
+      <c r="M55" t="s">
+        <v>15</v>
+      </c>
+      <c r="N55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>251</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56">
+        <v>5419</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56">
+        <v>56</v>
+      </c>
+      <c r="H56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56">
+        <v>1962</v>
+      </c>
+      <c r="J56">
+        <v>1962</v>
+      </c>
+      <c r="K56" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56">
+        <v>8533</v>
+      </c>
+      <c r="M56" t="s">
+        <v>15</v>
+      </c>
+      <c r="N56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>251</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57">
+        <v>5419</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57">
+        <v>56</v>
+      </c>
+      <c r="H57" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57">
+        <v>1961</v>
+      </c>
+      <c r="J57">
+        <v>1961</v>
+      </c>
+      <c r="K57" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57">
+        <v>8800</v>
+      </c>
+      <c r="M57" t="s">
+        <v>15</v>
+      </c>
+      <c r="N57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:N57">
+    <sortCondition descending="1" ref="I1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>